--- a/04.沟通汇报/2.汇报机制/1.日清/QDCH_daily_20170929.xlsx
+++ b/04.沟通汇报/2.汇报机制/1.日清/QDCH_daily_20170929.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jerry/Documents/6.项目/1.项目文档/18.清算所项目/4.QSS_DOC/qss_doc/04.沟通汇报/2.汇报机制/1.日清/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14685"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -75,49 +70,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>陈力杰/郭海洋</t>
-    <rPh sb="0" eb="1">
-      <t>chen'li'jie</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>guo'hai'yang</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新业务系统维度信息梳理
-2.资金风险放大页面</t>
-    <rPh sb="2" eb="3">
-      <t>xin'ye'wu</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xi'tong</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>wei'du</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>xin'xi</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>shu'li</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>zi'jin</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>feng'xian</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>fang'da</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ye'mian</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.舆情页面开发</t>
+    <t>N</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.信息滚动效果</t>
     <rPh sb="2" eb="3">
       <t>yu'qing</t>
     </rPh>
@@ -130,76 +87,22 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>舆情列表页面需判断是用自定义页面还是FR来开发。</t>
-    <rPh sb="0" eb="1">
+    <t>3.指标对比滚动效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.插件升级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>主题开发样式调整</t>
+    <rPh sb="2" eb="3">
       <t>yu'qing</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>lie'biao</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>biao</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ye'mian</t>
     </rPh>
     <rPh sb="6" eb="7">
-      <t>xu</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>pan'duan</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>shi</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>yong</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>zi'ding'yi</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>hai'shi</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>lai'kai'fa</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>老系统维度信息梳理</t>
-    <rPh sb="0" eb="1">
-      <t>lao'xi'tong</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>wei'du</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>xin'xi</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>shu'li</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.舆情页面开发
-2.TAB页签底色主题开发
-3.按钮底色主题开发</t>
-    <rPh sb="2" eb="3">
-      <t>yu'qing</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ye'mian</t>
-    </rPh>
-    <rPh sb="6" eb="7">
       <t>kai'fa</t>
     </rPh>
     <rPh sb="14" eb="15">
@@ -226,14 +129,22 @@
     <rPh sb="31" eb="32">
       <t>kai'fa</t>
     </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.下拉框样式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.放大页面大小调整</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -301,7 +212,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -315,9 +226,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -327,22 +235,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="个性色1" xfId="1" builtinId="29"/>
+    <cellStyle name="着色 1" xfId="1" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -644,26 +552,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="24.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.83203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="24.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.875" style="5" customWidth="1"/>
     <col min="5" max="5" width="26" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,94 +596,106 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18.75" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="9">
-        <v>43007</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.7</v>
+        <v>43017</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="11"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="46" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9">
-        <v>43007</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
-        <v>1</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E3" s="10"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="10"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="10"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H11" s="6"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="H10" s="5"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="F2:F6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
